--- a/OnBoard/output/trust/bio/Bio_Trust_33.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_33.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q164"/>
+  <dimension ref="A1:Q149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7057,12 +7057,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F137">
@@ -7072,10 +7072,10 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="I137">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
@@ -7084,15 +7084,15 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>FROSQ-3</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>SS7919</t>
         </is>
       </c>
     </row>
@@ -7114,12 +7114,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F138">
@@ -7129,10 +7129,10 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>27</v>
+        <v>268</v>
       </c>
       <c r="I138">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -7141,15 +7141,15 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>FROSQ-2</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L138">
         <v>0</v>
       </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>SS7920</t>
         </is>
       </c>
     </row>
@@ -7171,12 +7171,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F139">
@@ -7186,10 +7186,10 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>30</v>
+        <v>273</v>
       </c>
       <c r="I139">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -7198,15 +7198,15 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>FROSQ-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L139">
         <v>0</v>
       </c>
-      <c r="P139" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>SS7921</t>
         </is>
       </c>
     </row>
@@ -7228,12 +7228,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F140">
@@ -7243,27 +7243,27 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="I140">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>FROSQ-3</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L140">
         <v>0</v>
       </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>SS7922</t>
         </is>
       </c>
     </row>
@@ -7285,12 +7285,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F141">
@@ -7300,10 +7300,10 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>30</v>
+        <v>284</v>
       </c>
       <c r="I141">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>FROSQ-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>SS7923</t>
         </is>
       </c>
     </row>
@@ -7342,12 +7342,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F142">
@@ -7357,10 +7357,10 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="I142">
-        <v>39</v>
+        <v>403</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -7369,15 +7369,15 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>FROSQ-2</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L142">
         <v>0</v>
       </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>SS7924</t>
         </is>
       </c>
     </row>
@@ -7399,12 +7399,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F143">
@@ -7414,10 +7414,10 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="I143">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -7426,15 +7426,15 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>FROSQ-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L143">
         <v>0</v>
       </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>SS7925</t>
         </is>
       </c>
     </row>
@@ -7456,12 +7456,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F144">
@@ -7471,10 +7471,10 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="I144">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -7483,15 +7483,15 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>FROSQ-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L144">
         <v>0</v>
       </c>
-      <c r="P144" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>SS7926</t>
         </is>
       </c>
     </row>
@@ -7513,12 +7513,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F145">
@@ -7528,10 +7528,10 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="I145">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -7540,15 +7540,15 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>FROSQ-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L145">
         <v>0</v>
       </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>SS7927</t>
         </is>
       </c>
     </row>
@@ -7570,12 +7570,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F146">
@@ -7585,10 +7585,10 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="I146">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -7597,15 +7597,15 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>FROSQ-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L146">
         <v>0</v>
       </c>
-      <c r="P146" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>SS7928</t>
         </is>
       </c>
     </row>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F147">
@@ -7642,10 +7642,10 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>31</v>
+        <v>332</v>
       </c>
       <c r="I147">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -7654,15 +7654,15 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>FROSQ-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L147">
         <v>0</v>
       </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>SS7929</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F148">
@@ -7699,10 +7699,10 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="I148">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -7711,15 +7711,15 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>FROSQ-2</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L148">
         <v>0</v>
       </c>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>SS7930</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F149">
@@ -7756,865 +7756,25 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="I149">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
+        </is>
+      </c>
       <c r="L149">
         <v>0</v>
       </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-      <c r="H150">
-        <v>30</v>
-      </c>
-      <c r="I150">
-        <v>43</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>SQUIMAN</t>
-        </is>
-      </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="H151">
-        <v>32</v>
-      </c>
-      <c r="I151">
-        <v>52</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-      <c r="H152">
-        <v>277</v>
-      </c>
-      <c r="I152">
-        <v>228</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>SS7919</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-      <c r="H153">
-        <v>268</v>
-      </c>
-      <c r="I153">
-        <v>168</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>SS7920</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-      <c r="H154">
-        <v>273</v>
-      </c>
-      <c r="I154">
-        <v>190</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>SS7921</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155">
-        <v>258</v>
-      </c>
-      <c r="I155">
-        <v>165</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>SS7922</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
-      <c r="H156">
-        <v>284</v>
-      </c>
-      <c r="I156">
-        <v>217</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>SS7923</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-      <c r="H157">
-        <v>329</v>
-      </c>
-      <c r="I157">
-        <v>403</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>SS7924</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F158">
-        <v>1</v>
-      </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-      <c r="H158">
-        <v>279</v>
-      </c>
-      <c r="I158">
-        <v>186</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>SS7925</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="H159">
-        <v>250</v>
-      </c>
-      <c r="I159">
-        <v>147</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>SS7926</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F160">
-        <v>1</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-      <c r="H160">
-        <v>281</v>
-      </c>
-      <c r="I160">
-        <v>194</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>SS7927</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F161">
-        <v>1</v>
-      </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-      <c r="H161">
-        <v>260</v>
-      </c>
-      <c r="I161">
-        <v>159</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L161">
-        <v>0</v>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>SS7928</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-      <c r="H162">
-        <v>332</v>
-      </c>
-      <c r="I162">
-        <v>299</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>SS7929</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F163">
-        <v>1</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="H163">
-        <v>301</v>
-      </c>
-      <c r="I163">
-        <v>260</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L163">
-        <v>0</v>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>SS7930</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-      <c r="H164">
-        <v>252</v>
-      </c>
-      <c r="I164">
-        <v>147</v>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-      <c r="N164" t="inlineStr">
+      <c r="N149" t="inlineStr">
         <is>
           <t>SS7931</t>
         </is>
